--- a/EEM_Results_and_Sources/Lernraten_EEM_Paper.xlsx
+++ b/EEM_Results_and_Sources/Lernraten_EEM_Paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D20B91F-8605-4FAC-8A98-E596D6CA2D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{920E17C1-9EF6-4E52-A5FD-FF72F2EF62DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7545" windowWidth="16440" windowHeight="28440" firstSheet="3" activeTab="4" xr2:uid="{90F0805E-108C-4CC8-8791-2E63166ADE2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{90F0805E-108C-4CC8-8791-2E63166ADE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3068,7 +3068,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,7 +3094,8 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>2009687.113971055</v>
+        <f>2009687.11397106-260000</f>
+        <v>1749687.1139710599</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -3109,7 +3110,8 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2009687.113971055</v>
+        <f t="shared" ref="A3:A6" si="1">2009687.11397106-260000</f>
+        <v>1749687.1139710599</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -3124,7 +3126,8 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2009687.113971055</v>
+        <f t="shared" si="1"/>
+        <v>1749687.1139710599</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -3139,7 +3142,8 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2009687.113971055</v>
+        <f t="shared" si="1"/>
+        <v>1749687.1139710599</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3154,7 +3158,8 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2009687.113971055</v>
+        <f t="shared" si="1"/>
+        <v>1749687.1139710599</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -3169,14 +3174,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>2009629.9693720499</v>
+        <f>2009629.96937205-260000</f>
+        <v>1749629.9693720499</v>
       </c>
       <c r="B7" s="3">
         <v>230054.5509</v>
       </c>
       <c r="C7" s="3">
         <f>(B7/A7)*100</f>
-        <v>11.447607490242856</v>
+        <v>13.148754589667186</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>62</v>
@@ -3184,14 +3190,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2009627.5632791801</v>
+        <f>2009627.56327918-260000</f>
+        <v>1749627.5632791801</v>
       </c>
       <c r="B8" s="3">
         <v>235897.2133</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:C15" si="1">(B8/A8)*100</f>
-        <v>11.73835478824137</v>
+        <f t="shared" ref="C8:C15" si="2">(B8/A8)*100</f>
+        <v>13.48271016363492</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>60</v>
@@ -3199,14 +3206,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2009614.860826079</v>
+        <f>2009614.86082608-260000</f>
+        <v>1749614.86082608</v>
       </c>
       <c r="B9" s="3">
         <v>262784.98790000001</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>13.076385581263999</v>
+        <f t="shared" si="2"/>
+        <v>15.019590527250449</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>61</v>
@@ -3214,14 +3222,15 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2009612.045617044</v>
+        <f>2009612.04561704-260000</f>
+        <v>1749612.04561704</v>
       </c>
       <c r="B10" s="3">
         <v>268241.1482</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>13.347907064203406</v>
+        <f t="shared" si="2"/>
+        <v>15.331464416467178</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>55</v>
@@ -3229,14 +3238,15 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2009627.710235076</v>
+        <f>2009627.71023508-260000</f>
+        <v>1749627.71023508</v>
       </c>
       <c r="B11" s="3">
         <v>340407.8162</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>16.938849641965817</v>
+        <f t="shared" si="2"/>
+        <v>19.45601422569278</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>43</v>
@@ -3244,14 +3254,15 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2005593.189552204</v>
+        <f>2005593.1895522-260000</f>
+        <v>1745593.1895522</v>
       </c>
       <c r="B12" s="3">
         <v>547062.73600000003</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>27.276854491221357</v>
+        <f t="shared" si="2"/>
+        <v>31.339646561083285</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>44</v>
@@ -3259,14 +3270,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>2006496.9282908719</v>
+        <f>2006496.92829087-260000</f>
+        <v>1746496.92829087</v>
       </c>
       <c r="B13" s="3">
         <v>639870.16099999996</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>31.889914805154447</v>
+        <f t="shared" si="2"/>
+        <v>36.637348204567402</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>88</v>
@@ -3274,14 +3286,15 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>2074520.087999634</v>
+        <f>2074520.08799963-260000</f>
+        <v>1814520.08799963</v>
       </c>
       <c r="B14" s="3">
         <v>1179874.781</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>56.874589348406836</v>
+        <f t="shared" si="2"/>
+        <v>65.024068281366993</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>89</v>
@@ -3289,14 +3302,15 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>2106807.0000000028</v>
+        <f>2106807-260000</f>
+        <v>1846807</v>
       </c>
       <c r="B15" s="3">
         <v>1212052.608</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>57.530310465078117</v>
+        <f t="shared" si="2"/>
+        <v>65.629630383683832</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>29</v>
@@ -3311,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E65C1BC-A79B-40EA-B6A5-A0E187B78C2F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3427,7 @@
         <v>230054.5509</v>
       </c>
       <c r="C7" s="3">
-        <v>11.447607490242856</v>
+        <v>13.148754589667186</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>62</v>
@@ -3427,7 +3441,7 @@
         <v>235897.2133</v>
       </c>
       <c r="C8" s="3">
-        <v>11.73835478824137</v>
+        <v>13.48271016363492</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>60</v>
@@ -3441,7 +3455,7 @@
         <v>262784.98790000001</v>
       </c>
       <c r="C9" s="3">
-        <v>13.076385581263999</v>
+        <v>15.019590527250449</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>61</v>
@@ -3455,7 +3469,7 @@
         <v>268241.1482</v>
       </c>
       <c r="C10" s="3">
-        <v>13.347907064203406</v>
+        <v>15.331464416467178</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>55</v>
@@ -3469,7 +3483,7 @@
         <v>340407.8162</v>
       </c>
       <c r="C11" s="3">
-        <v>16.938849641965817</v>
+        <v>19.45601422569278</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>43</v>
@@ -3483,7 +3497,7 @@
         <v>547062.73600000003</v>
       </c>
       <c r="C12" s="3">
-        <v>27.276854491221357</v>
+        <v>31.339646561083285</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>44</v>
@@ -3497,7 +3511,7 @@
         <v>639870.16099999996</v>
       </c>
       <c r="C13" s="3">
-        <v>31.889914805154447</v>
+        <v>36.637348204567402</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>88</v>
@@ -3511,7 +3525,7 @@
         <v>1179874.781</v>
       </c>
       <c r="C14" s="3">
-        <v>56.874589348406836</v>
+        <v>65.024068281366993</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>89</v>
@@ -3525,7 +3539,7 @@
         <v>1212052.608</v>
       </c>
       <c r="C15" s="3">
-        <v>57.530310465078117</v>
+        <v>65.629630383683832</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>29</v>
@@ -3724,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF3846E-18FA-4FA8-86B0-51192BC2E339}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
